--- a/Code/Results/Cases/Case_4_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_214/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.8238749054109</v>
+        <v>12.14772653440945</v>
       </c>
       <c r="C2">
-        <v>9.866348106907479</v>
+        <v>9.323899103350096</v>
       </c>
       <c r="D2">
-        <v>12.120845367084</v>
+        <v>15.16759677321874</v>
       </c>
       <c r="E2">
-        <v>13.11746563176273</v>
+        <v>16.60469432001316</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.4326142424302</v>
+        <v>55.70429320400463</v>
       </c>
       <c r="H2">
-        <v>15.2369497447287</v>
+        <v>20.8110631617826</v>
       </c>
       <c r="I2">
-        <v>23.87742558711581</v>
+        <v>30.62855519248042</v>
       </c>
       <c r="J2">
-        <v>5.927229329858595</v>
+        <v>9.498812931353068</v>
       </c>
       <c r="K2">
-        <v>12.16388159882249</v>
+        <v>13.33463643469456</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.92786148358345</v>
+        <v>11.98618602813944</v>
       </c>
       <c r="C3">
-        <v>9.242131817617242</v>
+        <v>9.191793318813389</v>
       </c>
       <c r="D3">
-        <v>11.62485057358994</v>
+        <v>15.11372790898095</v>
       </c>
       <c r="E3">
-        <v>12.59126592872706</v>
+        <v>16.5516143496315</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.88436015185084</v>
+        <v>55.43826085452385</v>
       </c>
       <c r="H3">
-        <v>15.04224494410999</v>
+        <v>20.81108589297105</v>
       </c>
       <c r="I3">
-        <v>23.53988880943608</v>
+        <v>30.6083048622537</v>
       </c>
       <c r="J3">
-        <v>5.844970343485739</v>
+        <v>9.509333182249517</v>
       </c>
       <c r="K3">
-        <v>11.32561535285145</v>
+        <v>13.23397808163872</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.34771070812785</v>
+        <v>11.88969986707975</v>
       </c>
       <c r="C4">
-        <v>8.8450400830015</v>
+        <v>9.112680714061824</v>
       </c>
       <c r="D4">
-        <v>11.31910267554487</v>
+        <v>15.08408846183472</v>
       </c>
       <c r="E4">
-        <v>12.26759619967868</v>
+        <v>16.52281041636313</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.95033384486371</v>
+        <v>55.28627447893231</v>
       </c>
       <c r="H4">
-        <v>14.93095442921954</v>
+        <v>20.8142914796287</v>
       </c>
       <c r="I4">
-        <v>23.3457343252448</v>
+        <v>30.60074067992656</v>
       </c>
       <c r="J4">
-        <v>5.797535740715884</v>
+        <v>9.517264351989455</v>
       </c>
       <c r="K4">
-        <v>10.78333765491026</v>
+        <v>13.17551445555709</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.10366971422487</v>
+        <v>11.85111306190985</v>
       </c>
       <c r="C5">
-        <v>8.67983835126196</v>
+        <v>9.080987323098674</v>
       </c>
       <c r="D5">
-        <v>11.19435720677386</v>
+        <v>15.07288219067845</v>
       </c>
       <c r="E5">
-        <v>12.13570993921107</v>
+        <v>16.51203234077103</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47.57413834984434</v>
+        <v>55.22722996785507</v>
       </c>
       <c r="H5">
-        <v>14.88762899970832</v>
+        <v>20.81639994272618</v>
       </c>
       <c r="I5">
-        <v>23.2698285626571</v>
+        <v>30.59888267257671</v>
       </c>
       <c r="J5">
-        <v>5.778969828293373</v>
+        <v>9.520866349755886</v>
       </c>
       <c r="K5">
-        <v>10.55534174929896</v>
+        <v>13.15255447115554</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.06268402479237</v>
+        <v>11.84475149053815</v>
       </c>
       <c r="C6">
-        <v>8.652205734159764</v>
+        <v>9.075758834687782</v>
       </c>
       <c r="D6">
-        <v>11.17363904058766</v>
+        <v>15.07107427957265</v>
       </c>
       <c r="E6">
-        <v>12.11381602695286</v>
+        <v>16.51030081134608</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>47.51194645646611</v>
+        <v>55.21760123078128</v>
       </c>
       <c r="H6">
-        <v>14.88055572550751</v>
+        <v>20.81679848247098</v>
       </c>
       <c r="I6">
-        <v>23.2574162029125</v>
+        <v>30.59864809272716</v>
       </c>
       <c r="J6">
-        <v>5.775932855189267</v>
+        <v>9.521486800838229</v>
       </c>
       <c r="K6">
-        <v>10.51705740010477</v>
+        <v>13.1487948701536</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.34445046542861</v>
+        <v>11.88917643872656</v>
       </c>
       <c r="C7">
-        <v>8.842825668155488</v>
+        <v>9.112251021332122</v>
       </c>
       <c r="D7">
-        <v>11.31742070925172</v>
+        <v>15.083933789519</v>
       </c>
       <c r="E7">
-        <v>12.26581726484517</v>
+        <v>16.52266116447274</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.94524206837947</v>
+        <v>55.28546643486379</v>
       </c>
       <c r="H7">
-        <v>14.93036199046101</v>
+        <v>20.8143166680036</v>
       </c>
       <c r="I7">
-        <v>23.34469772766995</v>
+        <v>30.60071066501929</v>
       </c>
       <c r="J7">
-        <v>5.79728227248744</v>
+        <v>9.517311431918774</v>
       </c>
       <c r="K7">
-        <v>10.78029132006268</v>
+        <v>13.17520127831359</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.5211042123628</v>
+        <v>12.09149915690893</v>
       </c>
       <c r="C8">
-        <v>9.654031183737505</v>
+        <v>9.277959560381497</v>
       </c>
       <c r="D8">
-        <v>11.95016159248554</v>
+        <v>15.14831468701384</v>
       </c>
       <c r="E8">
-        <v>12.93624095346575</v>
+        <v>16.5856110335673</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.89547376634399</v>
+        <v>55.61022999864477</v>
       </c>
       <c r="H8">
-        <v>15.16807137901918</v>
+        <v>20.81040841462096</v>
       </c>
       <c r="I8">
-        <v>23.75827835812598</v>
+        <v>30.62056233679112</v>
       </c>
       <c r="J8">
-        <v>5.898223663080239</v>
+        <v>9.502134829312176</v>
       </c>
       <c r="K8">
-        <v>11.88052280966868</v>
+        <v>13.2992510665555</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.59443199630844</v>
+        <v>12.50728910616352</v>
       </c>
       <c r="C9">
-        <v>11.22220339125185</v>
+        <v>9.61687818112739</v>
       </c>
       <c r="D9">
-        <v>13.17582034259351</v>
+        <v>15.30143411942146</v>
       </c>
       <c r="E9">
-        <v>14.24052626322416</v>
+        <v>16.73873400361279</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.84207404485304</v>
+        <v>56.33549512392991</v>
       </c>
       <c r="H9">
-        <v>15.70199355410038</v>
+        <v>20.8280775324128</v>
       </c>
       <c r="I9">
-        <v>24.67670139675493</v>
+        <v>30.69811090190795</v>
       </c>
       <c r="J9">
-        <v>6.12093181283114</v>
+        <v>9.484053053406077</v>
       </c>
       <c r="K9">
-        <v>13.82301995219693</v>
+        <v>13.56788019091681</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.98076009474945</v>
+        <v>12.82112727107823</v>
       </c>
       <c r="C10">
-        <v>12.3203438374771</v>
+        <v>9.8718044257692</v>
       </c>
       <c r="D10">
-        <v>14.0613132979231</v>
+        <v>15.4297151080743</v>
       </c>
       <c r="E10">
-        <v>15.18644590097423</v>
+        <v>16.86875948769397</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.8064752757848</v>
+        <v>56.9196843915004</v>
       </c>
       <c r="H10">
-        <v>16.13875662679903</v>
+        <v>20.85650222763925</v>
       </c>
       <c r="I10">
-        <v>25.42187778477629</v>
+        <v>30.77857423597936</v>
       </c>
       <c r="J10">
-        <v>6.300223610577969</v>
+        <v>9.477889148486144</v>
       </c>
       <c r="K10">
-        <v>15.12469057239849</v>
+        <v>13.77908466581991</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.58306874734627</v>
+        <v>12.96502575506347</v>
       </c>
       <c r="C11">
-        <v>12.80048910719025</v>
+        <v>9.988515140003416</v>
       </c>
       <c r="D11">
-        <v>14.46017137698746</v>
+        <v>15.49135414816544</v>
       </c>
       <c r="E11">
-        <v>15.61335230118087</v>
+        <v>16.93157529363009</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>58.1681953387327</v>
+        <v>57.19597431697974</v>
       </c>
       <c r="H11">
-        <v>16.34784921071748</v>
+        <v>20.8727804232914</v>
       </c>
       <c r="I11">
-        <v>25.77731968017948</v>
+        <v>30.8202546461609</v>
       </c>
       <c r="J11">
-        <v>6.385338526647802</v>
+        <v>9.476629944056167</v>
       </c>
       <c r="K11">
-        <v>15.69095854234383</v>
+        <v>13.87780526477016</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.80719452241625</v>
+        <v>13.01962251567395</v>
       </c>
       <c r="C12">
-        <v>12.97962464290775</v>
+        <v>10.03277249931982</v>
       </c>
       <c r="D12">
-        <v>14.61061246938471</v>
+        <v>15.51515362497523</v>
       </c>
       <c r="E12">
-        <v>15.7744958791429</v>
+        <v>16.95587577071237</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>58.68574745030021</v>
+        <v>57.30205611099689</v>
       </c>
       <c r="H12">
-        <v>16.42859021942898</v>
+        <v>20.87942475656732</v>
       </c>
       <c r="I12">
-        <v>25.91438765651558</v>
+        <v>30.83676465354825</v>
       </c>
       <c r="J12">
-        <v>6.418095174256024</v>
+        <v>9.476374982239806</v>
       </c>
       <c r="K12">
-        <v>15.90179137399625</v>
+        <v>13.9155362133688</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.75909893458028</v>
+        <v>13.00786033092911</v>
       </c>
       <c r="C13">
-        <v>12.94116219238187</v>
+        <v>10.02323885832391</v>
       </c>
       <c r="D13">
-        <v>14.57823906001857</v>
+        <v>15.51000783920783</v>
       </c>
       <c r="E13">
-        <v>15.73981385252295</v>
+        <v>16.95061961862302</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>58.57419808121986</v>
+        <v>57.27914567316866</v>
       </c>
       <c r="H13">
-        <v>16.41113059140332</v>
+        <v>20.8779724499161</v>
       </c>
       <c r="I13">
-        <v>25.88475598455908</v>
+        <v>30.83317667872396</v>
       </c>
       <c r="J13">
-        <v>6.411016809615212</v>
+        <v>9.476420030161879</v>
       </c>
       <c r="K13">
-        <v>15.85654287525485</v>
+        <v>13.90739523989846</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.60158626218305</v>
+        <v>12.96951567187774</v>
       </c>
       <c r="C14">
-        <v>12.81527985518992</v>
+        <v>9.992155242043218</v>
       </c>
       <c r="D14">
-        <v>14.47256031049192</v>
+        <v>15.49330304747075</v>
       </c>
       <c r="E14">
-        <v>15.62662009564753</v>
+        <v>16.93356429918522</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>58.21073634049332</v>
+        <v>57.20467288041967</v>
       </c>
       <c r="H14">
-        <v>16.35446011009338</v>
+        <v>20.87331744236003</v>
       </c>
       <c r="I14">
-        <v>25.78854620823172</v>
+        <v>30.82159839621673</v>
       </c>
       <c r="J14">
-        <v>6.388022810575857</v>
+        <v>9.476604523380372</v>
       </c>
       <c r="K14">
-        <v>15.70837532630592</v>
+        <v>13.88090263352021</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.50459380570154</v>
+        <v>12.94604052625757</v>
       </c>
       <c r="C15">
-        <v>12.73782697797434</v>
+        <v>9.973122316848761</v>
       </c>
       <c r="D15">
-        <v>14.40775075746452</v>
+        <v>15.48313010940277</v>
       </c>
       <c r="E15">
-        <v>15.5572180150239</v>
+        <v>16.92318387260864</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>57.98835406738577</v>
+        <v>57.15924406927285</v>
       </c>
       <c r="H15">
-        <v>16.31995332504783</v>
+        <v>20.8705286005158</v>
       </c>
       <c r="I15">
-        <v>25.72993987150013</v>
+        <v>30.81460086383923</v>
       </c>
       <c r="J15">
-        <v>6.374007235998323</v>
+        <v>9.476746415699067</v>
       </c>
       <c r="K15">
-        <v>15.6171532432846</v>
+        <v>13.86471944484084</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.94083756694346</v>
+        <v>12.81174102348082</v>
       </c>
       <c r="C16">
-        <v>12.28858343286472</v>
+        <v>9.864188164570594</v>
       </c>
       <c r="D16">
-        <v>14.03516431310682</v>
+        <v>15.42575174052626</v>
       </c>
       <c r="E16">
-        <v>15.15847516864273</v>
+        <v>16.86472695229323</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.71774755663593</v>
+        <v>56.90183531862198</v>
       </c>
       <c r="H16">
-        <v>16.12530679784809</v>
+        <v>20.85550567295252</v>
       </c>
       <c r="I16">
-        <v>25.3989885376266</v>
+        <v>30.77595220109826</v>
       </c>
       <c r="J16">
-        <v>6.294733830237745</v>
+        <v>9.478002504588954</v>
       </c>
       <c r="K16">
-        <v>15.08717305451422</v>
+        <v>13.77268346059323</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.58781526152618</v>
+        <v>12.72960144815892</v>
       </c>
       <c r="C17">
-        <v>12.00808771185822</v>
+        <v>9.797518409826841</v>
       </c>
       <c r="D17">
-        <v>13.8055525194136</v>
+        <v>15.39138319525563</v>
       </c>
       <c r="E17">
-        <v>14.91296049408126</v>
+        <v>16.82979511853681</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>55.94162868810747</v>
+        <v>56.74658190802663</v>
       </c>
       <c r="H17">
-        <v>16.0086074372465</v>
+        <v>20.84714622084936</v>
       </c>
       <c r="I17">
-        <v>25.20024552297687</v>
+        <v>30.75354058005545</v>
       </c>
       <c r="J17">
-        <v>6.247021777892994</v>
+        <v>9.479168567672579</v>
       </c>
       <c r="K17">
-        <v>14.75550354985012</v>
+        <v>13.71687632075838</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.38209107344269</v>
+        <v>12.68246684128906</v>
       </c>
       <c r="C18">
-        <v>11.84492044057187</v>
+        <v>9.75924436813114</v>
       </c>
       <c r="D18">
-        <v>13.67311355140619</v>
+        <v>15.37192525771532</v>
       </c>
       <c r="E18">
-        <v>14.77142714778757</v>
+        <v>16.81004924732708</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.4964635587796</v>
+        <v>56.65827997505802</v>
       </c>
       <c r="H18">
-        <v>15.94246030005136</v>
+        <v>20.84265327882008</v>
       </c>
       <c r="I18">
-        <v>25.08747605280907</v>
+        <v>30.74112815770034</v>
       </c>
       <c r="J18">
-        <v>6.219912585360038</v>
+        <v>9.479984680180721</v>
       </c>
       <c r="K18">
-        <v>14.5622934414368</v>
+        <v>13.6850282457913</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.31197345635689</v>
+        <v>12.66652851284519</v>
       </c>
       <c r="C19">
-        <v>11.78935690906883</v>
+        <v>9.746299310319142</v>
       </c>
       <c r="D19">
-        <v>13.62820933792191</v>
+        <v>15.36539078124809</v>
       </c>
       <c r="E19">
-        <v>14.7234527715538</v>
+        <v>16.80342346410898</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>55.34595213164373</v>
+        <v>56.62855521512727</v>
       </c>
       <c r="H19">
-        <v>15.92022962988519</v>
+        <v>20.84118621346296</v>
       </c>
       <c r="I19">
-        <v>25.04955617928663</v>
+        <v>30.73700774479305</v>
       </c>
       <c r="J19">
-        <v>6.210790771000839</v>
+        <v>9.480285985308807</v>
       </c>
       <c r="K19">
-        <v>14.49645283193833</v>
+        <v>13.67428907414484</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.62567111439175</v>
+        <v>12.73833439005907</v>
       </c>
       <c r="C20">
-        <v>12.03813600722395</v>
+        <v>9.804608333371249</v>
       </c>
       <c r="D20">
-        <v>13.83003391210212</v>
+        <v>15.39500980700845</v>
       </c>
       <c r="E20">
-        <v>14.93912934000637</v>
+        <v>16.83347795946894</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.02411998739312</v>
+        <v>56.76300626163404</v>
       </c>
       <c r="H20">
-        <v>16.02092889629771</v>
+        <v>20.84800348563396</v>
       </c>
       <c r="I20">
-        <v>25.22124172957055</v>
+        <v>30.75587687259103</v>
       </c>
       <c r="J20">
-        <v>6.252066195030261</v>
+        <v>9.479029389141713</v>
       </c>
       <c r="K20">
-        <v>14.7910623009124</v>
+        <v>13.72279137111471</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.64795789915038</v>
+        <v>12.98077601367254</v>
       </c>
       <c r="C21">
-        <v>12.85232651216462</v>
+        <v>10.00128393935145</v>
       </c>
       <c r="D21">
-        <v>14.50361704698325</v>
+        <v>15.49819733257605</v>
       </c>
       <c r="E21">
-        <v>15.65988195205503</v>
+        <v>16.93856003776812</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.31744195830277</v>
+        <v>57.22650829035848</v>
       </c>
       <c r="H21">
-        <v>16.37106264543547</v>
+        <v>20.87467171186185</v>
       </c>
       <c r="I21">
-        <v>25.81673743371455</v>
+        <v>30.82497953202115</v>
       </c>
       <c r="J21">
-        <v>6.394762313578953</v>
+        <v>9.476544314256389</v>
       </c>
       <c r="K21">
-        <v>15.75199244251029</v>
+        <v>13.88867498107422</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.29308896043079</v>
+        <v>13.13981513599987</v>
       </c>
       <c r="C22">
-        <v>13.36885559912737</v>
+        <v>10.1301613463441</v>
       </c>
       <c r="D22">
-        <v>14.94036310982145</v>
+        <v>15.56829950198978</v>
       </c>
       <c r="E22">
-        <v>16.12793119799782</v>
+        <v>17.01022330837804</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>59.82738229190434</v>
+        <v>57.53789575942749</v>
       </c>
       <c r="H22">
-        <v>16.60903733815637</v>
+        <v>20.89489871153386</v>
       </c>
       <c r="I22">
-        <v>26.22038240666484</v>
+        <v>30.8743748283697</v>
       </c>
       <c r="J22">
-        <v>6.491094516075352</v>
+        <v>9.476213229068293</v>
       </c>
       <c r="K22">
-        <v>16.359092178762</v>
+        <v>13.99910026238791</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.95083200810384</v>
+        <v>13.05489759262478</v>
       </c>
       <c r="C23">
-        <v>13.09456243893996</v>
+        <v>10.06136076101722</v>
       </c>
       <c r="D23">
-        <v>14.70758469829769</v>
+        <v>15.53064581578754</v>
       </c>
       <c r="E23">
-        <v>15.87840139987136</v>
+        <v>16.9717068136037</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.02046039834572</v>
+        <v>57.3709482625158</v>
       </c>
       <c r="H23">
-        <v>16.48116546165986</v>
+        <v>20.88384768498461</v>
       </c>
       <c r="I23">
-        <v>26.00358926808218</v>
+        <v>30.84762568385171</v>
       </c>
       <c r="J23">
-        <v>6.439393480835459</v>
+        <v>9.476271730452693</v>
       </c>
       <c r="K23">
-        <v>16.0369439267418</v>
+        <v>13.93999104797662</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.60856511070408</v>
+        <v>12.7343859468927</v>
       </c>
       <c r="C24">
-        <v>12.02455711913501</v>
+        <v>9.801402803257519</v>
       </c>
       <c r="D24">
-        <v>13.81896721782138</v>
+        <v>15.39336927723182</v>
       </c>
       <c r="E24">
-        <v>14.92729959738347</v>
+        <v>16.83181189665848</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.98682244321238</v>
+        <v>56.75557783117397</v>
       </c>
       <c r="H24">
-        <v>16.01535542643366</v>
+        <v>20.84761494107751</v>
       </c>
       <c r="I24">
-        <v>25.21174470951263</v>
+        <v>30.75481916321461</v>
       </c>
       <c r="J24">
-        <v>6.249784614922805</v>
+        <v>9.479091857818542</v>
       </c>
       <c r="K24">
-        <v>14.77499407537895</v>
+        <v>13.72011643867468</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.05802912744831</v>
+        <v>12.39310361204284</v>
       </c>
       <c r="C25">
-        <v>10.79997233429362</v>
+        <v>9.523963958322021</v>
       </c>
       <c r="D25">
-        <v>12.84655392320818</v>
+        <v>15.25719240240391</v>
       </c>
       <c r="E25">
-        <v>13.88951024313515</v>
+        <v>16.69418729615001</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.76250321193029</v>
+        <v>56.13007636028691</v>
       </c>
       <c r="H25">
-        <v>15.54997562390458</v>
+        <v>20.82058428557467</v>
       </c>
       <c r="I25">
-        <v>24.4162450400441</v>
+        <v>30.67300056106132</v>
       </c>
       <c r="J25">
-        <v>6.057975864993738</v>
+        <v>9.487693914498847</v>
       </c>
       <c r="K25">
-        <v>13.31998936773492</v>
+        <v>13.49265597766825</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_214/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.14772653440945</v>
+        <v>12.82387490541085</v>
       </c>
       <c r="C2">
-        <v>9.323899103350096</v>
+        <v>9.866348106907513</v>
       </c>
       <c r="D2">
-        <v>15.16759677321874</v>
+        <v>12.12084536708406</v>
       </c>
       <c r="E2">
-        <v>16.60469432001316</v>
+        <v>13.11746563176283</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>55.70429320400463</v>
+        <v>50.4326142424305</v>
       </c>
       <c r="H2">
-        <v>20.8110631617826</v>
+        <v>15.23694974472881</v>
       </c>
       <c r="I2">
-        <v>30.62855519248042</v>
+        <v>23.87742558711594</v>
       </c>
       <c r="J2">
-        <v>9.498812931353068</v>
+        <v>5.92722932985864</v>
       </c>
       <c r="K2">
-        <v>13.33463643469456</v>
+        <v>12.16388159882237</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.98618602813944</v>
+        <v>11.92786148358345</v>
       </c>
       <c r="C3">
-        <v>9.191793318813389</v>
+        <v>9.242131817617244</v>
       </c>
       <c r="D3">
-        <v>15.11372790898095</v>
+        <v>11.62485057358987</v>
       </c>
       <c r="E3">
-        <v>16.5516143496315</v>
+        <v>12.59126592872705</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>55.43826085452385</v>
+        <v>48.88436015185091</v>
       </c>
       <c r="H3">
-        <v>20.81108589297105</v>
+        <v>15.04224494411002</v>
       </c>
       <c r="I3">
-        <v>30.6083048622537</v>
+        <v>23.53988880943611</v>
       </c>
       <c r="J3">
-        <v>9.509333182249517</v>
+        <v>5.84497034348581</v>
       </c>
       <c r="K3">
-        <v>13.23397808163872</v>
+        <v>11.32561535285144</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.88969986707975</v>
+        <v>11.34771070812782</v>
       </c>
       <c r="C4">
-        <v>9.112680714061824</v>
+        <v>8.845040083001461</v>
       </c>
       <c r="D4">
-        <v>15.08408846183472</v>
+        <v>11.3191026755448</v>
       </c>
       <c r="E4">
-        <v>16.52281041636313</v>
+        <v>12.26759619967875</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>55.28627447893231</v>
+        <v>47.95033384486375</v>
       </c>
       <c r="H4">
-        <v>20.8142914796287</v>
+        <v>14.93095442921953</v>
       </c>
       <c r="I4">
-        <v>30.60074067992656</v>
+        <v>23.34573432524488</v>
       </c>
       <c r="J4">
-        <v>9.517264351989455</v>
+        <v>5.797535740715977</v>
       </c>
       <c r="K4">
-        <v>13.17551445555709</v>
+        <v>10.78333765491027</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.85111306190985</v>
+        <v>11.10366971422489</v>
       </c>
       <c r="C5">
-        <v>9.080987323098674</v>
+        <v>8.67983835126196</v>
       </c>
       <c r="D5">
-        <v>15.07288219067845</v>
+        <v>11.19435720677389</v>
       </c>
       <c r="E5">
-        <v>16.51203234077103</v>
+        <v>12.13570993921108</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.22722996785507</v>
+        <v>47.57413834984423</v>
       </c>
       <c r="H5">
-        <v>20.81639994272618</v>
+        <v>14.88762899970821</v>
       </c>
       <c r="I5">
-        <v>30.59888267257671</v>
+        <v>23.269828562657</v>
       </c>
       <c r="J5">
-        <v>9.520866349755886</v>
+        <v>5.778969828293316</v>
       </c>
       <c r="K5">
-        <v>13.15255447115554</v>
+        <v>10.55534174929906</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.84475149053815</v>
+        <v>11.06268402479248</v>
       </c>
       <c r="C6">
-        <v>9.075758834687782</v>
+        <v>8.65220573415974</v>
       </c>
       <c r="D6">
-        <v>15.07107427957265</v>
+        <v>11.1736390405877</v>
       </c>
       <c r="E6">
-        <v>16.51030081134608</v>
+        <v>12.11381602695301</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.21760123078128</v>
+        <v>47.51194645646606</v>
       </c>
       <c r="H6">
-        <v>20.81679848247098</v>
+        <v>14.8805557255075</v>
       </c>
       <c r="I6">
-        <v>30.59864809272716</v>
+        <v>23.25741620291245</v>
       </c>
       <c r="J6">
-        <v>9.521486800838229</v>
+        <v>5.775932855189278</v>
       </c>
       <c r="K6">
-        <v>13.1487948701536</v>
+        <v>10.51705740010484</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88917643872656</v>
+        <v>11.34445046542859</v>
       </c>
       <c r="C7">
-        <v>9.112251021332122</v>
+        <v>8.842825668155502</v>
       </c>
       <c r="D7">
-        <v>15.083933789519</v>
+        <v>11.31742070925159</v>
       </c>
       <c r="E7">
-        <v>16.52266116447274</v>
+        <v>12.26581726484508</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>55.28546643486379</v>
+        <v>47.94524206837971</v>
       </c>
       <c r="H7">
-        <v>20.8143166680036</v>
+        <v>14.93036199046104</v>
       </c>
       <c r="I7">
-        <v>30.60071066501929</v>
+        <v>23.34469772766998</v>
       </c>
       <c r="J7">
-        <v>9.517311431918774</v>
+        <v>5.79728227248742</v>
       </c>
       <c r="K7">
-        <v>13.17520127831359</v>
+        <v>10.7802913200626</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.09149915690893</v>
+        <v>12.52110421236278</v>
       </c>
       <c r="C8">
-        <v>9.277959560381497</v>
+        <v>9.654031183737489</v>
       </c>
       <c r="D8">
-        <v>15.14831468701384</v>
+        <v>11.95016159248551</v>
       </c>
       <c r="E8">
-        <v>16.5856110335673</v>
+        <v>12.93624095346575</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>55.61022999864477</v>
+        <v>49.89547376634429</v>
       </c>
       <c r="H8">
-        <v>20.81040841462096</v>
+        <v>15.16807137901919</v>
       </c>
       <c r="I8">
-        <v>30.62056233679112</v>
+        <v>23.75827835812612</v>
       </c>
       <c r="J8">
-        <v>9.502134829312176</v>
+        <v>5.898223663080311</v>
       </c>
       <c r="K8">
-        <v>13.2992510665555</v>
+        <v>11.88052280966864</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.50728910616352</v>
+        <v>14.59443199630838</v>
       </c>
       <c r="C9">
-        <v>9.61687818112739</v>
+        <v>11.22220339125191</v>
       </c>
       <c r="D9">
-        <v>15.30143411942146</v>
+        <v>13.1758203425935</v>
       </c>
       <c r="E9">
-        <v>16.73873400361279</v>
+        <v>14.24052626322418</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>56.33549512392991</v>
+        <v>53.8420740448534</v>
       </c>
       <c r="H9">
-        <v>20.8280775324128</v>
+        <v>15.7019935541004</v>
       </c>
       <c r="I9">
-        <v>30.69811090190795</v>
+        <v>24.67670139675505</v>
       </c>
       <c r="J9">
-        <v>9.484053053406077</v>
+        <v>6.120931812831198</v>
       </c>
       <c r="K9">
-        <v>13.56788019091681</v>
+        <v>13.82301995219691</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.82112727107823</v>
+        <v>15.98076009474953</v>
       </c>
       <c r="C10">
-        <v>9.8718044257692</v>
+        <v>12.32034383747699</v>
       </c>
       <c r="D10">
-        <v>15.4297151080743</v>
+        <v>14.06131329792304</v>
       </c>
       <c r="E10">
-        <v>16.86875948769397</v>
+        <v>15.18644590097422</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.9196843915004</v>
+        <v>56.80647527578478</v>
       </c>
       <c r="H10">
-        <v>20.85650222763925</v>
+        <v>16.13875662679899</v>
       </c>
       <c r="I10">
-        <v>30.77857423597936</v>
+        <v>25.42187778477622</v>
       </c>
       <c r="J10">
-        <v>9.477889148486144</v>
+        <v>6.300223610577945</v>
       </c>
       <c r="K10">
-        <v>13.77908466581991</v>
+        <v>15.12469057239856</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.96502575506347</v>
+        <v>16.58306874734624</v>
       </c>
       <c r="C11">
-        <v>9.988515140003416</v>
+        <v>12.80048910719028</v>
       </c>
       <c r="D11">
-        <v>15.49135414816544</v>
+        <v>14.46017137698745</v>
       </c>
       <c r="E11">
-        <v>16.93157529363009</v>
+        <v>15.61335230118084</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>57.19597431697974</v>
+        <v>58.1681953387328</v>
       </c>
       <c r="H11">
-        <v>20.8727804232914</v>
+        <v>16.34784921071753</v>
       </c>
       <c r="I11">
-        <v>30.8202546461609</v>
+        <v>25.77731968017961</v>
       </c>
       <c r="J11">
-        <v>9.476629944056167</v>
+        <v>6.385338526647802</v>
       </c>
       <c r="K11">
-        <v>13.87780526477016</v>
+        <v>15.69095854234384</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.01962251567395</v>
+        <v>16.80719452241616</v>
       </c>
       <c r="C12">
-        <v>10.03277249931982</v>
+        <v>12.97962464290767</v>
       </c>
       <c r="D12">
-        <v>15.51515362497523</v>
+        <v>14.61061246938467</v>
       </c>
       <c r="E12">
-        <v>16.95587577071237</v>
+        <v>15.77449587914288</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>57.30205611099689</v>
+        <v>58.68574745030018</v>
       </c>
       <c r="H12">
-        <v>20.87942475656732</v>
+        <v>16.42859021942901</v>
       </c>
       <c r="I12">
-        <v>30.83676465354825</v>
+        <v>25.91438765651566</v>
       </c>
       <c r="J12">
-        <v>9.476374982239806</v>
+        <v>6.418095174256024</v>
       </c>
       <c r="K12">
-        <v>13.9155362133688</v>
+        <v>15.90179137399618</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.00786033092911</v>
+        <v>16.75909893458026</v>
       </c>
       <c r="C13">
-        <v>10.02323885832391</v>
+        <v>12.94116219238175</v>
       </c>
       <c r="D13">
-        <v>15.51000783920783</v>
+        <v>14.57823906001855</v>
       </c>
       <c r="E13">
-        <v>16.95061961862302</v>
+        <v>15.73981385252296</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>57.27914567316866</v>
+        <v>58.57419808122014</v>
       </c>
       <c r="H13">
-        <v>20.8779724499161</v>
+        <v>16.41113059140339</v>
       </c>
       <c r="I13">
-        <v>30.83317667872396</v>
+        <v>25.88475598455914</v>
       </c>
       <c r="J13">
-        <v>9.476420030161879</v>
+        <v>6.411016809615257</v>
       </c>
       <c r="K13">
-        <v>13.90739523989846</v>
+        <v>15.85654287525477</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.96951567187774</v>
+        <v>16.60158626218318</v>
       </c>
       <c r="C14">
-        <v>9.992155242043218</v>
+        <v>12.81527985518997</v>
       </c>
       <c r="D14">
-        <v>15.49330304747075</v>
+        <v>14.47256031049189</v>
       </c>
       <c r="E14">
-        <v>16.93356429918522</v>
+        <v>15.6266200956475</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>57.20467288041967</v>
+        <v>58.21073634049328</v>
       </c>
       <c r="H14">
-        <v>20.87331744236003</v>
+        <v>16.35446011009327</v>
       </c>
       <c r="I14">
-        <v>30.82159839621673</v>
+        <v>25.78854620823153</v>
       </c>
       <c r="J14">
-        <v>9.476604523380372</v>
+        <v>6.388022810575839</v>
       </c>
       <c r="K14">
-        <v>13.88090263352021</v>
+        <v>15.70837532630604</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.94604052625757</v>
+        <v>16.5045938057015</v>
       </c>
       <c r="C15">
-        <v>9.973122316848761</v>
+        <v>12.7378269779743</v>
       </c>
       <c r="D15">
-        <v>15.48313010940277</v>
+        <v>14.40775075746446</v>
       </c>
       <c r="E15">
-        <v>16.92318387260864</v>
+        <v>15.55721801502388</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>57.15924406927285</v>
+        <v>57.98835406738589</v>
       </c>
       <c r="H15">
-        <v>20.8705286005158</v>
+        <v>16.3199533250479</v>
       </c>
       <c r="I15">
-        <v>30.81460086383923</v>
+        <v>25.72993987150025</v>
       </c>
       <c r="J15">
-        <v>9.476746415699067</v>
+        <v>6.37400723599835</v>
       </c>
       <c r="K15">
-        <v>13.86471944484084</v>
+        <v>15.61715324328455</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.81174102348082</v>
+        <v>15.94083756694356</v>
       </c>
       <c r="C16">
-        <v>9.864188164570594</v>
+        <v>12.28858343286466</v>
       </c>
       <c r="D16">
-        <v>15.42575174052626</v>
+        <v>14.03516431310685</v>
       </c>
       <c r="E16">
-        <v>16.86472695229323</v>
+        <v>15.15847516864271</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.90183531862198</v>
+        <v>56.71774755663576</v>
       </c>
       <c r="H16">
-        <v>20.85550567295252</v>
+        <v>16.12530679784803</v>
       </c>
       <c r="I16">
-        <v>30.77595220109826</v>
+        <v>25.39898853762645</v>
       </c>
       <c r="J16">
-        <v>9.478002504588954</v>
+        <v>6.294733830237728</v>
       </c>
       <c r="K16">
-        <v>13.77268346059323</v>
+        <v>15.0871730545143</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.72960144815892</v>
+        <v>15.58781526152618</v>
       </c>
       <c r="C17">
-        <v>9.797518409826841</v>
+        <v>12.00808771185821</v>
       </c>
       <c r="D17">
-        <v>15.39138319525563</v>
+        <v>13.80555251941359</v>
       </c>
       <c r="E17">
-        <v>16.82979511853681</v>
+        <v>14.91296049408125</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>56.74658190802663</v>
+        <v>55.94162868810754</v>
       </c>
       <c r="H17">
-        <v>20.84714622084936</v>
+        <v>16.00860743724657</v>
       </c>
       <c r="I17">
-        <v>30.75354058005545</v>
+        <v>25.20024552297692</v>
       </c>
       <c r="J17">
-        <v>9.479168567672579</v>
+        <v>6.24702177789297</v>
       </c>
       <c r="K17">
-        <v>13.71687632075838</v>
+        <v>14.75550354985013</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.68246684128906</v>
+        <v>15.38209107344274</v>
       </c>
       <c r="C18">
-        <v>9.75924436813114</v>
+        <v>11.84492044057176</v>
       </c>
       <c r="D18">
-        <v>15.37192525771532</v>
+        <v>13.6731135514062</v>
       </c>
       <c r="E18">
-        <v>16.81004924732708</v>
+        <v>14.77142714778758</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>56.65827997505802</v>
+        <v>55.49646355877956</v>
       </c>
       <c r="H18">
-        <v>20.84265327882008</v>
+        <v>15.94246030005135</v>
       </c>
       <c r="I18">
-        <v>30.74112815770034</v>
+        <v>25.08747605280902</v>
       </c>
       <c r="J18">
-        <v>9.479984680180721</v>
+        <v>6.219912585360066</v>
       </c>
       <c r="K18">
-        <v>13.6850282457913</v>
+        <v>14.56229344143673</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.66652851284519</v>
+        <v>15.31197345635682</v>
       </c>
       <c r="C19">
-        <v>9.746299310319142</v>
+        <v>11.78935690906868</v>
       </c>
       <c r="D19">
-        <v>15.36539078124809</v>
+        <v>13.62820933792187</v>
       </c>
       <c r="E19">
-        <v>16.80342346410898</v>
+        <v>14.72345277155378</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>56.62855521512727</v>
+        <v>55.34595213164385</v>
       </c>
       <c r="H19">
-        <v>20.84118621346296</v>
+        <v>15.92022962988522</v>
       </c>
       <c r="I19">
-        <v>30.73700774479305</v>
+        <v>25.04955617928677</v>
       </c>
       <c r="J19">
-        <v>9.480285985308807</v>
+        <v>6.210790771000874</v>
       </c>
       <c r="K19">
-        <v>13.67428907414484</v>
+        <v>14.49645283193825</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.73833439005907</v>
+        <v>15.62567111439159</v>
       </c>
       <c r="C20">
-        <v>9.804608333371249</v>
+        <v>12.03813600722405</v>
       </c>
       <c r="D20">
-        <v>15.39500980700845</v>
+        <v>13.8300339121021</v>
       </c>
       <c r="E20">
-        <v>16.83347795946894</v>
+        <v>14.93912934000638</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.76300626163404</v>
+        <v>56.02411998739327</v>
       </c>
       <c r="H20">
-        <v>20.84800348563396</v>
+        <v>16.02092889629784</v>
       </c>
       <c r="I20">
-        <v>30.75587687259103</v>
+        <v>25.22124172957079</v>
       </c>
       <c r="J20">
-        <v>9.479029389141713</v>
+        <v>6.252066195030277</v>
       </c>
       <c r="K20">
-        <v>13.72279137111471</v>
+        <v>14.79106230091235</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.98077601367254</v>
+        <v>16.6479578991504</v>
       </c>
       <c r="C21">
-        <v>10.00128393935145</v>
+        <v>12.85232651216458</v>
       </c>
       <c r="D21">
-        <v>15.49819733257605</v>
+        <v>14.50361704698322</v>
       </c>
       <c r="E21">
-        <v>16.93856003776812</v>
+        <v>15.65988195205502</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>57.22650829035848</v>
+        <v>58.31744195830277</v>
       </c>
       <c r="H21">
-        <v>20.87467171186185</v>
+        <v>16.37106264543545</v>
       </c>
       <c r="I21">
-        <v>30.82497953202115</v>
+        <v>25.81673743371456</v>
       </c>
       <c r="J21">
-        <v>9.476544314256389</v>
+        <v>6.394762313578943</v>
       </c>
       <c r="K21">
-        <v>13.88867498107422</v>
+        <v>15.7519924425103</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.13981513599987</v>
+        <v>17.29308896043074</v>
       </c>
       <c r="C22">
-        <v>10.1301613463441</v>
+        <v>13.36885559912735</v>
       </c>
       <c r="D22">
-        <v>15.56829950198978</v>
+        <v>14.94036310982137</v>
       </c>
       <c r="E22">
-        <v>17.01022330837804</v>
+        <v>16.12793119799776</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>57.53789575942749</v>
+        <v>59.82738229190427</v>
       </c>
       <c r="H22">
-        <v>20.89489871153386</v>
+        <v>16.60903733815637</v>
       </c>
       <c r="I22">
-        <v>30.8743748283697</v>
+        <v>26.22038240666483</v>
       </c>
       <c r="J22">
-        <v>9.476213229068293</v>
+        <v>6.491094516075324</v>
       </c>
       <c r="K22">
-        <v>13.99910026238791</v>
+        <v>16.35909217876197</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.05489759262478</v>
+        <v>16.95083200810393</v>
       </c>
       <c r="C23">
-        <v>10.06136076101722</v>
+        <v>13.09456243893999</v>
       </c>
       <c r="D23">
-        <v>15.53064581578754</v>
+        <v>14.70758469829766</v>
       </c>
       <c r="E23">
-        <v>16.9717068136037</v>
+        <v>15.87840139987136</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.3709482625158</v>
+        <v>59.02046039834589</v>
       </c>
       <c r="H23">
-        <v>20.88384768498461</v>
+        <v>16.48116546165985</v>
       </c>
       <c r="I23">
-        <v>30.84762568385171</v>
+        <v>26.00358926808219</v>
       </c>
       <c r="J23">
-        <v>9.476271730452693</v>
+        <v>6.439393480835473</v>
       </c>
       <c r="K23">
-        <v>13.93999104797662</v>
+        <v>16.03694392674187</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.7343859468927</v>
+        <v>15.60856511070413</v>
       </c>
       <c r="C24">
-        <v>9.801402803257519</v>
+        <v>12.02455711913498</v>
       </c>
       <c r="D24">
-        <v>15.39336927723182</v>
+        <v>13.81896721782134</v>
       </c>
       <c r="E24">
-        <v>16.83181189665848</v>
+        <v>14.92729959738341</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.75557783117397</v>
+        <v>55.98682244321245</v>
       </c>
       <c r="H24">
-        <v>20.84761494107751</v>
+        <v>16.01535542643367</v>
       </c>
       <c r="I24">
-        <v>30.75481916321461</v>
+        <v>25.21174470951267</v>
       </c>
       <c r="J24">
-        <v>9.479091857818542</v>
+        <v>6.249784614922715</v>
       </c>
       <c r="K24">
-        <v>13.72011643867468</v>
+        <v>14.77499407537896</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.39310361204284</v>
+        <v>14.05802912744825</v>
       </c>
       <c r="C25">
-        <v>9.523963958322021</v>
+        <v>10.79997233429353</v>
       </c>
       <c r="D25">
-        <v>15.25719240240391</v>
+        <v>12.84655392320816</v>
       </c>
       <c r="E25">
-        <v>16.69418729615001</v>
+        <v>13.88951024313517</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>56.13007636028691</v>
+        <v>52.76250321193039</v>
       </c>
       <c r="H25">
-        <v>20.82058428557467</v>
+        <v>15.54997562390462</v>
       </c>
       <c r="I25">
-        <v>30.67300056106132</v>
+        <v>24.41624504004419</v>
       </c>
       <c r="J25">
-        <v>9.487693914498847</v>
+        <v>6.057975864993772</v>
       </c>
       <c r="K25">
-        <v>13.49265597766825</v>
+        <v>13.31998936773483</v>
       </c>
       <c r="L25">
         <v>0</v>
